--- a/進捗ファイル/アンケート.xlsx
+++ b/進捗ファイル/アンケート.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocs_2018021\Desktop\卒業研究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70AD82-64F8-4C88-807E-D8433C927773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2477BE-D091-45C2-B3C2-2AC3B6589BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{AC8C5AD6-8848-465D-9CC6-1A2CA903DF42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{AC8C5AD6-8848-465D-9CC6-1A2CA903DF42}"/>
   </bookViews>
   <sheets>
     <sheet name="アンケート１" sheetId="1" r:id="rId1"/>
-    <sheet name="アンケート２" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>ポータルシステムを使っていますか</t>
     <rPh sb="9" eb="10">
@@ -286,127 +285,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>カゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アンケート　HIUポータルに対して</t>
-    <rPh sb="14" eb="15">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムの立ち上がりが遅いときや遷移が遅すぎた時、
-フリーズしたと勘違いしたことはありますか</t>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カンチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はい/いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レポートの提出やテストなど期間通りに始まっているのか？
-又は、期間通りに終わっているのか？</t>
-    <rPh sb="5" eb="7">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>キカンドオ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自身の個人情報とマイページにある個人情報が一致しているか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分にあった試験場所（印刷）や希望したスクーリングの場所が間違っていたことは
-（自身の過失ではない方：例、試験場所「大阪」と入力したのに「東京」となっていた）
-ありますか？</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カシツ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>オオサカ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>トウキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -528,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,9 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A589090B-D03E-4EB9-B521-6FB2E1C28D48}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1141,52 +1016,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F035B8-A4B0-48FA-8AF9-0A518C1D0F20}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="79.125" defaultRowHeight="60.75" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="114.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>